--- a/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01790621098303007</v>
+        <v>0.01896572632373471</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02193499823444357</v>
+        <v>0.02151193733011856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01451025516270637</v>
+        <v>0.0135347624530725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03121435597129439</v>
+        <v>0.03029785007033094</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0216469890633165</v>
+        <v>0.02056524384358302</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05385485074990724</v>
+        <v>0.05303232219129152</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05770733964019625</v>
+        <v>0.05989223346764861</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05898898277636731</v>
+        <v>0.05730616006060726</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02307516510260967</v>
+        <v>0.02277145940824066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0418043946161845</v>
+        <v>0.04234524927111609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04013313404197603</v>
+        <v>0.03953445351198546</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0492576398063731</v>
+        <v>0.04906367498488162</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04415316196669935</v>
+        <v>0.04338738913272931</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05090955259384724</v>
+        <v>0.05459050436281762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0396520660359754</v>
+        <v>0.03795558469693436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06167522831549049</v>
+        <v>0.06216550738853703</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04768808127714368</v>
+        <v>0.0473773087908675</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09257826129192269</v>
+        <v>0.09180973284902424</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1010300786603873</v>
+        <v>0.1001639128617255</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08641023814596291</v>
+        <v>0.08598240712053598</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0407139764413905</v>
+        <v>0.04091225417103609</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06719395547969284</v>
+        <v>0.0668162794990295</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06368280134443398</v>
+        <v>0.06320004930178408</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06999174513621421</v>
+        <v>0.07030669163484647</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03074832289537166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03137987966989435</v>
+        <v>0.03137987966989434</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.05692468276560046</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01615276253259908</v>
+        <v>0.01636824063088129</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02061625783549864</v>
+        <v>0.01974289455561293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02138078591518099</v>
+        <v>0.02144263017185433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02217527318533667</v>
+        <v>0.02213427678298053</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04413346483566141</v>
+        <v>0.04352863619502179</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06452587827723756</v>
+        <v>0.06375021791442897</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05131962271432066</v>
+        <v>0.05176573649696792</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08759719458325521</v>
+        <v>0.08764722006998822</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03275615975128526</v>
+        <v>0.03262784860453585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04552339996938051</v>
+        <v>0.04539153021623794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03929687507874653</v>
+        <v>0.03985459047024461</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05768098018616031</v>
+        <v>0.0574371429144774</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03692184957971393</v>
+        <v>0.03704942025248161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04376639267978318</v>
+        <v>0.04330679968325672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04278158067180146</v>
+        <v>0.04279529258552047</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04296513343650859</v>
+        <v>0.04357907156946632</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07378375568778864</v>
+        <v>0.07301916095898058</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09868230860876122</v>
+        <v>0.101580493635731</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08430119402426225</v>
+        <v>0.08378250224262847</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1160271856980126</v>
+        <v>0.1166050098759848</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05100275636971214</v>
+        <v>0.05081294835347101</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0662287758876854</v>
+        <v>0.0668055833049763</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05998227125081408</v>
+        <v>0.05995452713018405</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07675642336853856</v>
+        <v>0.07522852015653714</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03924193386946673</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04902109301140788</v>
+        <v>0.04902109301140787</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06829904534132872</v>
@@ -969,7 +969,7 @@
         <v>0.05673336742174055</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06150834623802749</v>
+        <v>0.0615083462380275</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00986426143408079</v>
+        <v>0.01138884701941886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01830000174307225</v>
+        <v>0.01946794881883737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02762491584120159</v>
+        <v>0.02624215898768851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0348322447729676</v>
+        <v>0.0343233940455564</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05166393288330774</v>
+        <v>0.05149243181128993</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04166921932981751</v>
+        <v>0.04338712314022063</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05550130979746665</v>
+        <v>0.05612970634188603</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05989421796267672</v>
+        <v>0.05919912333968092</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03432817778831624</v>
+        <v>0.03406132485600818</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03541605959937505</v>
+        <v>0.03620320315128162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04436083589954559</v>
+        <v>0.04458348936556665</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05113600011099686</v>
+        <v>0.05021386343919245</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03240327740039639</v>
+        <v>0.03455595587274558</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05166952386927768</v>
+        <v>0.05161579377517859</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05765349009267244</v>
+        <v>0.05555183534244477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06762111478054295</v>
+        <v>0.06700434678989257</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08882725266112558</v>
+        <v>0.08914985720689508</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07785047163402535</v>
+        <v>0.0801725253436117</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09407902258527748</v>
+        <v>0.09503407273432976</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0899108739299542</v>
+        <v>0.08896791925890066</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05559928048172424</v>
+        <v>0.05399056215269938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05991056835111828</v>
+        <v>0.05936747409060468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06942871368761749</v>
+        <v>0.06794751281303983</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07344994882392342</v>
+        <v>0.07200509611809602</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06641297695455334</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06685488042191917</v>
+        <v>0.06685488042191919</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0195520587499242</v>
+        <v>0.01916179698691125</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02494865265829008</v>
+        <v>0.02572302877791665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03049804264215096</v>
+        <v>0.03078478858008611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03692455014175449</v>
+        <v>0.03624047820292275</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04101266709882474</v>
+        <v>0.0407268744137299</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05536744828263113</v>
+        <v>0.05633909788616635</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0698301293465735</v>
+        <v>0.06893690607270382</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07026124735985738</v>
+        <v>0.0706144430309953</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03381967578618612</v>
+        <v>0.03368140205865625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04495515674006352</v>
+        <v>0.04468940853362725</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05570809840671855</v>
+        <v>0.05467021680308676</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0580202346683957</v>
+        <v>0.05736241221156213</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04161903135197317</v>
+        <v>0.04115444098355561</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05437352658885209</v>
+        <v>0.05313202114041393</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05825293399279047</v>
+        <v>0.05929333880282571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06167515215852679</v>
+        <v>0.0609371395295159</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06791152451581142</v>
+        <v>0.06961913958882915</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08715457540229625</v>
+        <v>0.08862922687860081</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1071635480709687</v>
+        <v>0.1055276719497572</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09910839938926336</v>
+        <v>0.09941477893404008</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05096620845824505</v>
+        <v>0.05133579457255719</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06682244040087776</v>
+        <v>0.0651712090263393</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07844816967299102</v>
+        <v>0.07822738691348857</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07743063215464434</v>
+        <v>0.07644025133904621</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03481221709572157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04260220142732761</v>
+        <v>0.0426022014273276</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05330795268054919</v>
@@ -1229,7 +1229,7 @@
         <v>0.07635883703637372</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08416877020835269</v>
+        <v>0.08416877020835266</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03977475787123594</v>
@@ -1241,7 +1241,7 @@
         <v>0.05603516335786481</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06395881662727775</v>
+        <v>0.06395881662727776</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02673937484947642</v>
+        <v>0.02713357235955597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02908121080103974</v>
+        <v>0.02891074587079791</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03620433916357802</v>
+        <v>0.03639710590812335</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06338367757465636</v>
+        <v>0.06230076659572482</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06721206316001878</v>
+        <v>0.06719145952517991</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07720123231909302</v>
+        <v>0.07788883169725812</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04755216702335444</v>
+        <v>0.0472300922148439</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05058417854181586</v>
+        <v>0.05083381690630415</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05921133505176703</v>
+        <v>0.05873353348297853</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04079713072250962</v>
+        <v>0.04088874018502649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0414180542750661</v>
+        <v>0.04165267043984326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04967828967545175</v>
+        <v>0.05037896737454911</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08095250038921865</v>
+        <v>0.08042195249927023</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0854514299740696</v>
+        <v>0.08623277123905633</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09178685948479684</v>
+        <v>0.09242167545615469</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0588560159562462</v>
+        <v>0.05836757455631206</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06169786487479319</v>
+        <v>0.06145175399198887</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06920344312363322</v>
+        <v>0.06915528454445774</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12409</v>
+        <v>13143</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15371</v>
+        <v>15075</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9792</v>
+        <v>9133</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21545</v>
+        <v>20912</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14901</v>
+        <v>14156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37286</v>
+        <v>36716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>38828</v>
+        <v>40298</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>43226</v>
+        <v>41993</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31875</v>
+        <v>31455</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>58238</v>
+        <v>58991</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>54085</v>
+        <v>53278</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>70093</v>
+        <v>69817</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30598</v>
+        <v>30067</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35676</v>
+        <v>38255</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26757</v>
+        <v>25612</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42569</v>
+        <v>42908</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32826</v>
+        <v>32612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64095</v>
+        <v>63563</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>67977</v>
+        <v>67394</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63320</v>
+        <v>63006</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56240</v>
+        <v>56514</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>93608</v>
+        <v>93082</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>85821</v>
+        <v>85171</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>99598</v>
+        <v>100046</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15536</v>
+        <v>15743</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20986</v>
+        <v>20097</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21860</v>
+        <v>21924</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23260</v>
+        <v>23217</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>42739</v>
+        <v>42153</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>66392</v>
+        <v>65594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53522</v>
+        <v>53987</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>93802</v>
+        <v>93856</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>63226</v>
+        <v>62978</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>93181</v>
+        <v>92911</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>81162</v>
+        <v>82313</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>122270</v>
+        <v>121753</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35511</v>
+        <v>35634</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44552</v>
+        <v>44084</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43741</v>
+        <v>43755</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45067</v>
+        <v>45711</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>71452</v>
+        <v>70711</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>101537</v>
+        <v>104519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>87919</v>
+        <v>87378</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>124246</v>
+        <v>124865</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>98445</v>
+        <v>98079</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>135562</v>
+        <v>136742</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>123884</v>
+        <v>123827</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>162705</v>
+        <v>159466</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6693</v>
+        <v>7727</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13845</v>
+        <v>14728</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20983</v>
+        <v>19932</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27938</v>
+        <v>27530</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>35330</v>
+        <v>35213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32347</v>
+        <v>33681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>43569</v>
+        <v>44062</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48573</v>
+        <v>48010</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>46767</v>
+        <v>46403</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>54286</v>
+        <v>55493</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>68518</v>
+        <v>68862</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>82486</v>
+        <v>80998</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21986</v>
+        <v>23447</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39090</v>
+        <v>39049</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43791</v>
+        <v>42195</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>54238</v>
+        <v>53743</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>60744</v>
+        <v>60964</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60434</v>
+        <v>62237</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>73853</v>
+        <v>74603</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>72916</v>
+        <v>72152</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>75746</v>
+        <v>73554</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>91832</v>
+        <v>91000</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>107237</v>
+        <v>104949</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>118480</v>
+        <v>116149</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18422</v>
+        <v>18055</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23600</v>
+        <v>24332</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28594</v>
+        <v>28863</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36558</v>
+        <v>35880</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>42596</v>
+        <v>42299</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>58122</v>
+        <v>59142</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>72887</v>
+        <v>71955</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>78484</v>
+        <v>78879</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>66991</v>
+        <v>66717</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>89716</v>
+        <v>89186</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>110377</v>
+        <v>108321</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>122254</v>
+        <v>120868</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39214</v>
+        <v>38777</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51434</v>
+        <v>50259</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54616</v>
+        <v>55591</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61062</v>
+        <v>60332</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>70534</v>
+        <v>72307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>91490</v>
+        <v>93038</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>111855</v>
+        <v>110148</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>110707</v>
+        <v>111049</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100956</v>
+        <v>101688</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>133356</v>
+        <v>130061</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>155433</v>
+        <v>154996</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>163154</v>
+        <v>161067</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91480</v>
+        <v>92829</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>98712</v>
+        <v>98133</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>127848</v>
+        <v>128528</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>224840</v>
+        <v>220999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>238236</v>
+        <v>238163</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>288087</v>
+        <v>290653</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>331366</v>
+        <v>329122</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>350998</v>
+        <v>352730</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>430047</v>
+        <v>426577</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>139574</v>
+        <v>139888</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>140587</v>
+        <v>141384</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>175428</v>
+        <v>177902</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>287162</v>
+        <v>285280</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>302886</v>
+        <v>305656</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>342515</v>
+        <v>344884</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>410136</v>
+        <v>406733</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>428115</v>
+        <v>426407</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>502619</v>
+        <v>502269</v>
       </c>
     </row>
     <row r="24">
